--- a/vaadin-spreadsheet/src/test/resources/test_sheets/formulasheet.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/formulasheet.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="18375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -57,6 +62,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -384,13 +397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -627,7 +638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -865,7 +876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="44">A2+1</f>
         <v>3</v>
@@ -1103,7 +1114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="44"/>
         <v>4</v>
@@ -1341,7 +1352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="44"/>
         <v>5</v>
@@ -1579,7 +1590,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="44"/>
         <v>6</v>
@@ -1817,7 +1828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="44"/>
         <v>7</v>
@@ -2055,7 +2066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="44"/>
         <v>8</v>
@@ -2293,7 +2304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="44"/>
         <v>9</v>
@@ -2531,7 +2542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="44"/>
         <v>10</v>
@@ -2769,7 +2780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="44"/>
         <v>11</v>
@@ -3007,7 +3018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="44"/>
         <v>12</v>
@@ -3245,7 +3256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="44"/>
         <v>13</v>
@@ -3483,7 +3494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="44"/>
         <v>14</v>
@@ -3721,7 +3732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="44"/>
         <v>15</v>
@@ -3959,7 +3970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="44"/>
         <v>16</v>
@@ -4197,7 +4208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="44"/>
         <v>17</v>
@@ -4435,7 +4446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="44"/>
         <v>18</v>
@@ -4673,7 +4684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="44"/>
         <v>19</v>
@@ -4911,7 +4922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -5149,7 +5160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="44"/>
         <v>21</v>
@@ -5387,7 +5398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="44"/>
         <v>22</v>
@@ -5625,7 +5636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="44"/>
         <v>23</v>
@@ -5863,7 +5874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="44"/>
         <v>24</v>
@@ -6101,7 +6112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="44"/>
         <v>25</v>
@@ -6339,7 +6350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="44"/>
         <v>26</v>
@@ -6577,7 +6588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="44"/>
         <v>27</v>
@@ -6815,7 +6826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="44"/>
         <v>28</v>
@@ -7053,7 +7064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="44"/>
         <v>29</v>
@@ -7291,7 +7302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="44"/>
         <v>30</v>
@@ -7529,7 +7540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="44"/>
         <v>31</v>
@@ -7767,7 +7778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="44"/>
         <v>32</v>
@@ -8005,7 +8016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="44"/>
         <v>33</v>
@@ -8243,7 +8254,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="44"/>
         <v>34</v>
@@ -8481,7 +8492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="44"/>
         <v>35</v>
@@ -8719,7 +8730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="44"/>
         <v>36</v>
@@ -8957,7 +8968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="44"/>
         <v>37</v>
@@ -9195,7 +9206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="44"/>
         <v>38</v>
@@ -9433,7 +9444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="44"/>
         <v>39</v>
@@ -9671,7 +9682,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="44"/>
         <v>40</v>
@@ -9909,7 +9920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="44"/>
         <v>41</v>
@@ -10147,7 +10158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="44"/>
         <v>42</v>
@@ -10385,7 +10396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="44"/>
         <v>43</v>
@@ -10623,7 +10634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="44"/>
         <v>44</v>
@@ -10861,7 +10872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="44"/>
         <v>45</v>
@@ -11099,7 +11110,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="44"/>
         <v>46</v>
@@ -11337,7 +11348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="44"/>
         <v>47</v>
@@ -11575,7 +11586,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="44"/>
         <v>48</v>
@@ -11813,7 +11824,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="44"/>
         <v>49</v>
@@ -12051,7 +12062,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="44"/>
         <v>50</v>
@@ -12289,7 +12300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="44"/>
         <v>51</v>
@@ -12527,7 +12538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:59">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="44"/>
         <v>52</v>
@@ -12765,7 +12776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:59">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="44"/>
         <v>53</v>
@@ -13003,7 +13014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="44"/>
         <v>54</v>
@@ -13241,7 +13252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:59">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="44"/>
         <v>55</v>
@@ -13479,7 +13490,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="44"/>
         <v>56</v>
@@ -13717,7 +13728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="44"/>
         <v>57</v>
@@ -13955,7 +13966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:59">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="44"/>
         <v>58</v>
@@ -14193,7 +14204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="44"/>
         <v>59</v>
@@ -14431,7 +14442,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:59">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="44"/>
         <v>60</v>
@@ -14669,7 +14680,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="44"/>
         <v>61</v>
@@ -14907,7 +14918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="44"/>
         <v>62</v>
@@ -15145,7 +15156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="44"/>
         <v>63</v>
@@ -15383,7 +15394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:59">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="44"/>
         <v>64</v>
@@ -15621,7 +15632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:59">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="44"/>
         <v>65</v>
@@ -15859,7 +15870,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="44"/>
         <v>66</v>
@@ -16097,7 +16108,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:59">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="102">A66+1</f>
         <v>67</v>
@@ -16335,7 +16346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:59">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="102"/>
         <v>68</v>
@@ -16573,7 +16584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="102"/>
         <v>69</v>
@@ -16811,7 +16822,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:59">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="102"/>
         <v>70</v>
@@ -17049,7 +17060,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="102"/>
         <v>71</v>
@@ -17287,7 +17298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="102"/>
         <v>72</v>
@@ -17525,7 +17536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="102"/>
         <v>73</v>
@@ -17763,7 +17774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="102"/>
         <v>74</v>
@@ -18001,7 +18012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:59">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="102"/>
         <v>75</v>
@@ -18239,7 +18250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:59">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="102"/>
         <v>76</v>
@@ -18477,7 +18488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:59">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="102"/>
         <v>77</v>
@@ -18715,7 +18726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:59">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="102"/>
         <v>78</v>
@@ -18953,7 +18964,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:59">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="102"/>
         <v>79</v>
@@ -19191,7 +19202,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:59">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="102"/>
         <v>80</v>
@@ -19429,7 +19440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:59">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="102"/>
         <v>81</v>
@@ -19667,7 +19678,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:59">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="102"/>
         <v>82</v>
@@ -19905,7 +19916,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:59">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="102"/>
         <v>83</v>
@@ -20143,7 +20154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:59">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="102"/>
         <v>84</v>
@@ -20381,7 +20392,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:59">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="102"/>
         <v>85</v>
@@ -20619,7 +20630,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:59">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="102"/>
         <v>86</v>
@@ -20857,7 +20868,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:59">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="102"/>
         <v>87</v>
@@ -21095,7 +21106,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:59">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="102"/>
         <v>88</v>
@@ -21333,7 +21344,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:59">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="102"/>
         <v>89</v>
@@ -21571,7 +21582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:59">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="102"/>
         <v>90</v>
@@ -21809,7 +21820,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:59">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="102"/>
         <v>91</v>
@@ -22047,7 +22058,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:59">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="102"/>
         <v>92</v>
@@ -22285,7 +22296,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:59">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="102"/>
         <v>93</v>
@@ -22523,7 +22534,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:59">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="102"/>
         <v>94</v>
@@ -22761,7 +22772,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:59">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="102"/>
         <v>95</v>
@@ -22999,7 +23010,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:59">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="102"/>
         <v>96</v>
@@ -23237,7 +23248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:59">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="102"/>
         <v>97</v>
@@ -23475,7 +23486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:59">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="102"/>
         <v>98</v>
@@ -23713,7 +23724,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:59">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="102"/>
         <v>99</v>
@@ -23951,7 +23962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:59">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="102"/>
         <v>100</v>
@@ -24189,7 +24200,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:59">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="102"/>
         <v>101</v>
@@ -24427,7 +24438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:59">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="102"/>
         <v>102</v>
@@ -24665,7 +24676,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:59">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="102"/>
         <v>103</v>
@@ -24903,7 +24914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:59">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="102"/>
         <v>104</v>
@@ -25141,7 +25152,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:59">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="102"/>
         <v>105</v>
@@ -25379,7 +25390,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:59">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="102"/>
         <v>106</v>
@@ -25617,7 +25628,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:59">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="102"/>
         <v>107</v>
@@ -25855,7 +25866,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:59">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="102"/>
         <v>108</v>
@@ -26093,7 +26104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:59">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="102"/>
         <v>109</v>
@@ -26331,7 +26342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:59">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="102"/>
         <v>110</v>
@@ -26569,7 +26580,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:59">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="102"/>
         <v>111</v>
@@ -26807,7 +26818,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:59">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="102"/>
         <v>112</v>
@@ -27045,7 +27056,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:59">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="102"/>
         <v>113</v>
@@ -27283,7 +27294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:59">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="102"/>
         <v>114</v>
@@ -27521,7 +27532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:59">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="102"/>
         <v>115</v>
@@ -27759,7 +27770,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:59">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="102"/>
         <v>116</v>
@@ -27997,7 +28008,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:59">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="102"/>
         <v>117</v>
@@ -28235,7 +28246,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:59">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="102"/>
         <v>118</v>
@@ -28473,7 +28484,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:59">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="102"/>
         <v>119</v>
@@ -28711,7 +28722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:59">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="102"/>
         <v>120</v>
@@ -28949,7 +28960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:59">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="102"/>
         <v>121</v>
@@ -29187,7 +29198,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:59">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="102"/>
         <v>122</v>
@@ -29425,7 +29436,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:59">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="102"/>
         <v>123</v>
@@ -29663,7 +29674,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:59">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="102"/>
         <v>124</v>
@@ -29901,7 +29912,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:59">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="102"/>
         <v>125</v>
@@ -30139,7 +30150,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:59">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="102"/>
         <v>126</v>
@@ -30377,7 +30388,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:59">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="102"/>
         <v>127</v>
@@ -30615,7 +30626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:59">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="102"/>
         <v>128</v>
@@ -30853,7 +30864,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:59">
+    <row r="129" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="102"/>
         <v>129</v>
@@ -31091,7 +31102,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:59">
+    <row r="130" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="102"/>
         <v>130</v>
@@ -31329,7 +31340,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:59">
+    <row r="131" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ref="A131:A194" si="160">A130+1</f>
         <v>131</v>
@@ -31567,7 +31578,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:59">
+    <row r="132" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="160"/>
         <v>132</v>
@@ -31805,7 +31816,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:59">
+    <row r="133" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="160"/>
         <v>133</v>
@@ -32043,7 +32054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="1:59">
+    <row r="134" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="160"/>
         <v>134</v>
@@ -32281,7 +32292,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:59">
+    <row r="135" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="160"/>
         <v>135</v>
@@ -32519,7 +32530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="136" spans="1:59">
+    <row r="136" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="160"/>
         <v>136</v>
@@ -32757,7 +32768,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:59">
+    <row r="137" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="160"/>
         <v>137</v>
@@ -32995,7 +33006,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:59">
+    <row r="138" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="160"/>
         <v>138</v>
@@ -33233,7 +33244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:59">
+    <row r="139" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="160"/>
         <v>139</v>
@@ -33471,7 +33482,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:59">
+    <row r="140" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="160"/>
         <v>140</v>
@@ -33709,7 +33720,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:59">
+    <row r="141" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="160"/>
         <v>141</v>
@@ -33947,7 +33958,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:59">
+    <row r="142" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="160"/>
         <v>142</v>
@@ -34185,7 +34196,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:59">
+    <row r="143" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="160"/>
         <v>143</v>
@@ -34423,7 +34434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:59">
+    <row r="144" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="160"/>
         <v>144</v>
@@ -34661,7 +34672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:59">
+    <row r="145" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="160"/>
         <v>145</v>
@@ -34899,7 +34910,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:59">
+    <row r="146" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="160"/>
         <v>146</v>
@@ -35137,7 +35148,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="147" spans="1:59">
+    <row r="147" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="160"/>
         <v>147</v>
@@ -35375,7 +35386,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:59">
+    <row r="148" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="160"/>
         <v>148</v>
@@ -35613,7 +35624,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:59">
+    <row r="149" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="160"/>
         <v>149</v>
@@ -35851,7 +35862,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="150" spans="1:59">
+    <row r="150" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="160"/>
         <v>150</v>
@@ -36089,7 +36100,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="151" spans="1:59">
+    <row r="151" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="160"/>
         <v>151</v>
@@ -36327,7 +36338,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:59">
+    <row r="152" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="160"/>
         <v>152</v>
@@ -36565,7 +36576,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:59">
+    <row r="153" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="160"/>
         <v>153</v>
@@ -36803,7 +36814,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:59">
+    <row r="154" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="160"/>
         <v>154</v>
@@ -37041,7 +37052,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:59">
+    <row r="155" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="160"/>
         <v>155</v>
@@ -37279,7 +37290,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:59">
+    <row r="156" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="160"/>
         <v>156</v>
@@ -37517,7 +37528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="1:59">
+    <row r="157" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="160"/>
         <v>157</v>
@@ -37755,7 +37766,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:59">
+    <row r="158" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="160"/>
         <v>158</v>
@@ -37993,7 +38004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="159" spans="1:59">
+    <row r="159" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="160"/>
         <v>159</v>
@@ -38231,7 +38242,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:59">
+    <row r="160" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="160"/>
         <v>160</v>
@@ -38469,7 +38480,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:59">
+    <row r="161" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="160"/>
         <v>161</v>
@@ -38707,7 +38718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="1:59">
+    <row r="162" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="160"/>
         <v>162</v>
@@ -38945,7 +38956,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:59">
+    <row r="163" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="160"/>
         <v>163</v>
@@ -39183,7 +39194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:59">
+    <row r="164" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="160"/>
         <v>164</v>
@@ -39421,7 +39432,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="1:59">
+    <row r="165" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="160"/>
         <v>165</v>
@@ -39659,7 +39670,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:59">
+    <row r="166" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="160"/>
         <v>166</v>
@@ -39897,7 +39908,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:59">
+    <row r="167" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="160"/>
         <v>167</v>
@@ -40135,7 +40146,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:59">
+    <row r="168" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="160"/>
         <v>168</v>
@@ -40373,7 +40384,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:59">
+    <row r="169" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="160"/>
         <v>169</v>
@@ -40611,7 +40622,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:59">
+    <row r="170" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="160"/>
         <v>170</v>
@@ -40849,7 +40860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:59">
+    <row r="171" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="160"/>
         <v>171</v>
@@ -41087,7 +41098,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:59">
+    <row r="172" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="160"/>
         <v>172</v>
@@ -41325,7 +41336,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:59">
+    <row r="173" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="160"/>
         <v>173</v>
@@ -41563,7 +41574,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="174" spans="1:59">
+    <row r="174" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="160"/>
         <v>174</v>
@@ -41801,7 +41812,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:59">
+    <row r="175" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="160"/>
         <v>175</v>
@@ -42039,7 +42050,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="176" spans="1:59">
+    <row r="176" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="160"/>
         <v>176</v>
@@ -42277,7 +42288,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:59">
+    <row r="177" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="160"/>
         <v>177</v>
@@ -42515,7 +42526,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:59">
+    <row r="178" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="160"/>
         <v>178</v>
@@ -42753,7 +42764,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="179" spans="1:59">
+    <row r="179" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="160"/>
         <v>179</v>
@@ -42991,7 +43002,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="180" spans="1:59">
+    <row r="180" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="160"/>
         <v>180</v>
@@ -43229,7 +43240,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="181" spans="1:59">
+    <row r="181" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="160"/>
         <v>181</v>
@@ -43467,7 +43478,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="182" spans="1:59">
+    <row r="182" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="160"/>
         <v>182</v>
@@ -43705,7 +43716,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="183" spans="1:59">
+    <row r="183" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="160"/>
         <v>183</v>
@@ -43943,7 +43954,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:59">
+    <row r="184" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="160"/>
         <v>184</v>
@@ -44181,7 +44192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:59">
+    <row r="185" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="160"/>
         <v>185</v>
@@ -44419,7 +44430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:59">
+    <row r="186" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="160"/>
         <v>186</v>
@@ -44657,7 +44668,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="187" spans="1:59">
+    <row r="187" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="160"/>
         <v>187</v>
@@ -44895,7 +44906,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:59">
+    <row r="188" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="160"/>
         <v>188</v>
@@ -45133,7 +45144,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:59">
+    <row r="189" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="160"/>
         <v>189</v>
@@ -45371,7 +45382,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="190" spans="1:59">
+    <row r="190" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="160"/>
         <v>190</v>
@@ -45609,7 +45620,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:59">
+    <row r="191" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="160"/>
         <v>191</v>
@@ -45847,7 +45858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:59">
+    <row r="192" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="160"/>
         <v>192</v>
@@ -46085,7 +46096,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:59">
+    <row r="193" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="160"/>
         <v>193</v>
@@ -46323,7 +46334,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="1:59">
+    <row r="194" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="160"/>
         <v>194</v>
@@ -46561,7 +46572,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:59">
+    <row r="195" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ref="A195:A258" si="218">A194+1</f>
         <v>195</v>
@@ -46799,7 +46810,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="196" spans="1:59">
+    <row r="196" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" si="218"/>
         <v>196</v>
@@ -47037,7 +47048,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="197" spans="1:59">
+    <row r="197" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="218"/>
         <v>197</v>
@@ -47275,7 +47286,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="198" spans="1:59">
+    <row r="198" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="218"/>
         <v>198</v>
@@ -47513,7 +47524,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:59">
+    <row r="199" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="218"/>
         <v>199</v>
@@ -47751,7 +47762,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:59">
+    <row r="200" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="218"/>
         <v>200</v>
@@ -47989,7 +48000,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:59">
+    <row r="201" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="218"/>
         <v>201</v>
@@ -48227,7 +48238,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:59">
+    <row r="202" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="218"/>
         <v>202</v>
@@ -48465,7 +48476,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:59">
+    <row r="203" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="218"/>
         <v>203</v>
@@ -48703,7 +48714,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:59">
+    <row r="204" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="218"/>
         <v>204</v>
@@ -48941,7 +48952,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="205" spans="1:59">
+    <row r="205" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="218"/>
         <v>205</v>
@@ -49179,7 +49190,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="206" spans="1:59">
+    <row r="206" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="218"/>
         <v>206</v>
@@ -49417,7 +49428,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="207" spans="1:59">
+    <row r="207" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="218"/>
         <v>207</v>
@@ -49655,7 +49666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:59">
+    <row r="208" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="218"/>
         <v>208</v>
@@ -49893,7 +49904,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:59">
+    <row r="209" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="218"/>
         <v>209</v>
@@ -50131,7 +50142,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="210" spans="1:59">
+    <row r="210" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="218"/>
         <v>210</v>
@@ -50369,7 +50380,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="1:59">
+    <row r="211" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="218"/>
         <v>211</v>
@@ -50607,7 +50618,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="212" spans="1:59">
+    <row r="212" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="218"/>
         <v>212</v>
@@ -50845,7 +50856,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="213" spans="1:59">
+    <row r="213" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="218"/>
         <v>213</v>
@@ -51083,7 +51094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:59">
+    <row r="214" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="218"/>
         <v>214</v>
@@ -51321,7 +51332,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="215" spans="1:59">
+    <row r="215" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="218"/>
         <v>215</v>
@@ -51559,7 +51570,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="216" spans="1:59">
+    <row r="216" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="218"/>
         <v>216</v>
@@ -51797,7 +51808,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="217" spans="1:59">
+    <row r="217" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="218"/>
         <v>217</v>
@@ -52035,7 +52046,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:59">
+    <row r="218" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="218"/>
         <v>218</v>
@@ -52273,7 +52284,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="219" spans="1:59">
+    <row r="219" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="218"/>
         <v>219</v>
@@ -52511,7 +52522,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:59">
+    <row r="220" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="218"/>
         <v>220</v>
@@ -52749,7 +52760,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:59">
+    <row r="221" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="218"/>
         <v>221</v>
@@ -52987,7 +52998,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="1:59">
+    <row r="222" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="218"/>
         <v>222</v>
@@ -53225,7 +53236,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="223" spans="1:59">
+    <row r="223" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="218"/>
         <v>223</v>
@@ -53463,7 +53474,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:59">
+    <row r="224" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="218"/>
         <v>224</v>
@@ -53701,7 +53712,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="225" spans="1:59">
+    <row r="225" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="218"/>
         <v>225</v>
@@ -53939,7 +53950,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="226" spans="1:59">
+    <row r="226" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="218"/>
         <v>226</v>
@@ -54177,7 +54188,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="227" spans="1:59">
+    <row r="227" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="218"/>
         <v>227</v>
@@ -54415,7 +54426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="228" spans="1:59">
+    <row r="228" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="218"/>
         <v>228</v>
@@ -54653,7 +54664,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="229" spans="1:59">
+    <row r="229" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="218"/>
         <v>229</v>
@@ -54891,7 +54902,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="230" spans="1:59">
+    <row r="230" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="218"/>
         <v>230</v>
@@ -55129,7 +55140,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="231" spans="1:59">
+    <row r="231" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="218"/>
         <v>231</v>
@@ -55367,7 +55378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="232" spans="1:59">
+    <row r="232" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="218"/>
         <v>232</v>
@@ -55605,7 +55616,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="233" spans="1:59">
+    <row r="233" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="218"/>
         <v>233</v>
@@ -55843,7 +55854,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="234" spans="1:59">
+    <row r="234" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="218"/>
         <v>234</v>
@@ -56081,7 +56092,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:59">
+    <row r="235" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="218"/>
         <v>235</v>
@@ -56319,7 +56330,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="236" spans="1:59">
+    <row r="236" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="218"/>
         <v>236</v>
@@ -56557,7 +56568,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:59">
+    <row r="237" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="218"/>
         <v>237</v>
@@ -56795,7 +56806,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="238" spans="1:59">
+    <row r="238" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="218"/>
         <v>238</v>
@@ -57033,7 +57044,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="239" spans="1:59">
+    <row r="239" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="218"/>
         <v>239</v>
@@ -57271,7 +57282,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="240" spans="1:59">
+    <row r="240" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="218"/>
         <v>240</v>
@@ -57509,7 +57520,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="241" spans="1:59">
+    <row r="241" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="218"/>
         <v>241</v>
@@ -57747,7 +57758,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="242" spans="1:59">
+    <row r="242" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="218"/>
         <v>242</v>
@@ -57985,7 +57996,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="243" spans="1:59">
+    <row r="243" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="218"/>
         <v>243</v>
@@ -58223,7 +58234,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="244" spans="1:59">
+    <row r="244" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="218"/>
         <v>244</v>
@@ -58461,7 +58472,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="245" spans="1:59">
+    <row r="245" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="218"/>
         <v>245</v>
@@ -58699,7 +58710,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="1:59">
+    <row r="246" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="218"/>
         <v>246</v>
@@ -58937,7 +58948,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="247" spans="1:59">
+    <row r="247" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="218"/>
         <v>247</v>
@@ -59175,7 +59186,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="248" spans="1:59">
+    <row r="248" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="218"/>
         <v>248</v>
@@ -59413,7 +59424,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="249" spans="1:59">
+    <row r="249" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="218"/>
         <v>249</v>
@@ -59651,7 +59662,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" spans="1:59">
+    <row r="250" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="218"/>
         <v>250</v>
@@ -59889,7 +59900,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:59">
+    <row r="251" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="218"/>
         <v>251</v>
@@ -60127,7 +60138,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:59">
+    <row r="252" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="218"/>
         <v>252</v>
@@ -60365,7 +60376,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:59">
+    <row r="253" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="218"/>
         <v>253</v>
@@ -60603,7 +60614,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:59">
+    <row r="254" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="218"/>
         <v>254</v>
@@ -60841,7 +60852,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="255" spans="1:59">
+    <row r="255" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="218"/>
         <v>255</v>
@@ -61079,7 +61090,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="256" spans="1:59">
+    <row r="256" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="218"/>
         <v>256</v>
@@ -61317,7 +61328,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="257" spans="1:59">
+    <row r="257" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="218"/>
         <v>257</v>
@@ -61555,7 +61566,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="258" spans="1:59">
+    <row r="258" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="218"/>
         <v>258</v>
@@ -61793,7 +61804,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="259" spans="1:59">
+    <row r="259" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" ref="A259:A302" si="276">A258+1</f>
         <v>259</v>
@@ -62031,7 +62042,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="260" spans="1:59">
+    <row r="260" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" si="276"/>
         <v>260</v>
@@ -62269,7 +62280,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="261" spans="1:59">
+    <row r="261" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="276"/>
         <v>261</v>
@@ -62507,7 +62518,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="262" spans="1:59">
+    <row r="262" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="276"/>
         <v>262</v>
@@ -62745,7 +62756,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="263" spans="1:59">
+    <row r="263" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="276"/>
         <v>263</v>
@@ -62983,7 +62994,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="264" spans="1:59">
+    <row r="264" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="276"/>
         <v>264</v>
@@ -63221,7 +63232,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="265" spans="1:59">
+    <row r="265" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="276"/>
         <v>265</v>
@@ -63459,7 +63470,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="266" spans="1:59">
+    <row r="266" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="276"/>
         <v>266</v>
@@ -63697,7 +63708,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="267" spans="1:59">
+    <row r="267" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="276"/>
         <v>267</v>
@@ -63935,7 +63946,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="268" spans="1:59">
+    <row r="268" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="276"/>
         <v>268</v>
@@ -64173,7 +64184,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="269" spans="1:59">
+    <row r="269" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="276"/>
         <v>269</v>
@@ -64411,7 +64422,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="270" spans="1:59">
+    <row r="270" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="276"/>
         <v>270</v>
@@ -64649,7 +64660,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="271" spans="1:59">
+    <row r="271" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="276"/>
         <v>271</v>
@@ -64887,7 +64898,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="272" spans="1:59">
+    <row r="272" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="276"/>
         <v>272</v>
@@ -65125,7 +65136,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="273" spans="1:59">
+    <row r="273" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="276"/>
         <v>273</v>
@@ -65363,7 +65374,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="274" spans="1:59">
+    <row r="274" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="276"/>
         <v>274</v>
@@ -65601,7 +65612,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="275" spans="1:59">
+    <row r="275" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="276"/>
         <v>275</v>
@@ -65839,7 +65850,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="276" spans="1:59">
+    <row r="276" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="276"/>
         <v>276</v>
@@ -66077,7 +66088,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="277" spans="1:59">
+    <row r="277" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="276"/>
         <v>277</v>
@@ -66315,7 +66326,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="278" spans="1:59">
+    <row r="278" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="276"/>
         <v>278</v>
@@ -66553,7 +66564,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="279" spans="1:59">
+    <row r="279" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="276"/>
         <v>279</v>
@@ -66791,7 +66802,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="280" spans="1:59">
+    <row r="280" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="276"/>
         <v>280</v>
@@ -67029,7 +67040,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="281" spans="1:59">
+    <row r="281" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="276"/>
         <v>281</v>
@@ -67267,7 +67278,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="282" spans="1:59">
+    <row r="282" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="276"/>
         <v>282</v>
@@ -67505,7 +67516,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="283" spans="1:59">
+    <row r="283" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="276"/>
         <v>283</v>
@@ -67743,7 +67754,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="284" spans="1:59">
+    <row r="284" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="276"/>
         <v>284</v>
@@ -67981,7 +67992,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="285" spans="1:59">
+    <row r="285" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="276"/>
         <v>285</v>
@@ -68219,7 +68230,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="286" spans="1:59">
+    <row r="286" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="276"/>
         <v>286</v>
@@ -68457,7 +68468,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="287" spans="1:59">
+    <row r="287" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="276"/>
         <v>287</v>
@@ -68695,7 +68706,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="288" spans="1:59">
+    <row r="288" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="276"/>
         <v>288</v>
@@ -68933,7 +68944,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="289" spans="1:59">
+    <row r="289" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="276"/>
         <v>289</v>
@@ -69171,7 +69182,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="290" spans="1:59">
+    <row r="290" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="276"/>
         <v>290</v>
@@ -69409,7 +69420,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="291" spans="1:59">
+    <row r="291" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="276"/>
         <v>291</v>
@@ -69647,7 +69658,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="292" spans="1:59">
+    <row r="292" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="276"/>
         <v>292</v>
@@ -69885,7 +69896,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:59">
+    <row r="293" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="276"/>
         <v>293</v>
@@ -70123,7 +70134,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="294" spans="1:59">
+    <row r="294" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="276"/>
         <v>294</v>
@@ -70361,7 +70372,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="295" spans="1:59">
+    <row r="295" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="276"/>
         <v>295</v>
@@ -70599,7 +70610,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="296" spans="1:59">
+    <row r="296" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="276"/>
         <v>296</v>
@@ -70837,7 +70848,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="297" spans="1:59">
+    <row r="297" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="276"/>
         <v>297</v>
@@ -71075,7 +71086,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:59">
+    <row r="298" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="276"/>
         <v>298</v>
@@ -71313,7 +71324,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="299" spans="1:59">
+    <row r="299" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="276"/>
         <v>299</v>
@@ -71551,7 +71562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="300" spans="1:59">
+    <row r="300" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="276"/>
         <v>300</v>
@@ -71789,7 +71800,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="301" spans="1:59">
+    <row r="301" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="276"/>
         <v>301</v>
@@ -72027,7 +72038,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="302" spans="1:59">
+    <row r="302" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="276"/>
         <v>302</v>
